--- a/Code/Results/Cases/Case_3_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9994285188384601</v>
+        <v>1.021562707921193</v>
       </c>
       <c r="D2">
-        <v>1.016110944888964</v>
+        <v>1.026583254673848</v>
       </c>
       <c r="E2">
-        <v>1.006020036956834</v>
+        <v>1.022429520663156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040148605294201</v>
+        <v>1.030584396658172</v>
       </c>
       <c r="J2">
-        <v>1.021626336255066</v>
+        <v>1.026753473200626</v>
       </c>
       <c r="K2">
-        <v>1.027350300435679</v>
+        <v>1.029405477563145</v>
       </c>
       <c r="L2">
-        <v>1.017396135413819</v>
+        <v>1.025263927067645</v>
       </c>
       <c r="N2">
-        <v>1.011260644598374</v>
+        <v>1.013005452593201</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002672480574524</v>
+        <v>1.022252695899515</v>
       </c>
       <c r="D3">
-        <v>1.01829200655361</v>
+        <v>1.027068441004793</v>
       </c>
       <c r="E3">
-        <v>1.008515294835562</v>
+        <v>1.023008187642047</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040810247286473</v>
+        <v>1.030682306505229</v>
       </c>
       <c r="J3">
-        <v>1.023090555260378</v>
+        <v>1.027082484605793</v>
       </c>
       <c r="K3">
-        <v>1.028696067560325</v>
+        <v>1.029699082267485</v>
       </c>
       <c r="L3">
-        <v>1.019040368052945</v>
+        <v>1.025649881504466</v>
       </c>
       <c r="N3">
-        <v>1.011746101856643</v>
+        <v>1.013114311811413</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004736763406435</v>
+        <v>1.022699851145742</v>
       </c>
       <c r="D4">
-        <v>1.01968272864583</v>
+        <v>1.02738292320972</v>
       </c>
       <c r="E4">
-        <v>1.010108842541331</v>
+        <v>1.023383617840391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041223262245253</v>
+        <v>1.030744762724205</v>
       </c>
       <c r="J4">
-        <v>1.024020073530099</v>
+        <v>1.027295358324707</v>
       </c>
       <c r="K4">
-        <v>1.029549265456281</v>
+        <v>1.02988887672867</v>
       </c>
       <c r="L4">
-        <v>1.020086774743361</v>
+        <v>1.025899912433397</v>
       </c>
       <c r="N4">
-        <v>1.012054265079984</v>
+        <v>1.013184734933066</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005596472669889</v>
+        <v>1.022887997494496</v>
       </c>
       <c r="D5">
-        <v>1.020262560510851</v>
+        <v>1.027515257423985</v>
       </c>
       <c r="E5">
-        <v>1.01077384597382</v>
+        <v>1.023541684532759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041393317412629</v>
+        <v>1.030770803590168</v>
       </c>
       <c r="J5">
-        <v>1.024406631045764</v>
+        <v>1.027384844612716</v>
       </c>
       <c r="K5">
-        <v>1.029903805889592</v>
+        <v>1.029968620114246</v>
       </c>
       <c r="L5">
-        <v>1.020522572622232</v>
+        <v>1.026005093959688</v>
       </c>
       <c r="N5">
-        <v>1.01218241602518</v>
+        <v>1.013214336500442</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005740351736287</v>
+        <v>1.022919597547912</v>
       </c>
       <c r="D6">
-        <v>1.020359636491309</v>
+        <v>1.027537484245304</v>
       </c>
       <c r="E6">
-        <v>1.010885217520417</v>
+        <v>1.023568238393736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041421661879857</v>
+        <v>1.030775163294054</v>
       </c>
       <c r="J6">
-        <v>1.02447129104351</v>
+        <v>1.027399869373266</v>
       </c>
       <c r="K6">
-        <v>1.02996309378113</v>
+        <v>1.029982006631071</v>
       </c>
       <c r="L6">
-        <v>1.020595506269707</v>
+        <v>1.026022758374618</v>
       </c>
       <c r="N6">
-        <v>1.012203851722321</v>
+        <v>1.013219306467392</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004748282496686</v>
+        <v>1.022702364531513</v>
       </c>
       <c r="D7">
-        <v>1.019690495230164</v>
+        <v>1.027384690973805</v>
       </c>
       <c r="E7">
-        <v>1.010117747546454</v>
+        <v>1.023385729011271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041225548528948</v>
+        <v>1.030745111532128</v>
       </c>
       <c r="J7">
-        <v>1.024025255175686</v>
+        <v>1.027296554069456</v>
       </c>
       <c r="K7">
-        <v>1.029554019033834</v>
+        <v>1.029889942446934</v>
       </c>
       <c r="L7">
-        <v>1.020092613942437</v>
+        <v>1.025901317606772</v>
       </c>
       <c r="N7">
-        <v>1.012055982909709</v>
+        <v>1.013185130488192</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000532160997748</v>
+        <v>1.021795749067096</v>
       </c>
       <c r="D8">
-        <v>1.016852363628629</v>
+        <v>1.026747113857775</v>
       </c>
       <c r="E8">
-        <v>1.006867750649105</v>
+        <v>1.022624876796495</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040375364768959</v>
+        <v>1.030617671237569</v>
       </c>
       <c r="J8">
-        <v>1.022124937650583</v>
+        <v>1.026864667194587</v>
       </c>
       <c r="K8">
-        <v>1.027808796834375</v>
+        <v>1.029504740649284</v>
       </c>
       <c r="L8">
-        <v>1.01795549061705</v>
+        <v>1.025394300675658</v>
       </c>
       <c r="N8">
-        <v>1.011425957185071</v>
+        <v>1.013042245123921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928266225611639</v>
+        <v>1.020203533027826</v>
       </c>
       <c r="D9">
-        <v>1.011689146382392</v>
+        <v>1.02562780097102</v>
       </c>
       <c r="E9">
-        <v>1.000974231667564</v>
+        <v>1.021291864297752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038759547063202</v>
+        <v>1.030386260577968</v>
       </c>
       <c r="J9">
-        <v>1.018635259342288</v>
+        <v>1.026103544359989</v>
       </c>
       <c r="K9">
-        <v>1.024595379975647</v>
+        <v>1.028824589633989</v>
       </c>
       <c r="L9">
-        <v>1.014051522393195</v>
+        <v>1.024503180429445</v>
       </c>
       <c r="N9">
-        <v>1.010268908009472</v>
+        <v>1.012790360326784</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9874895489503174</v>
+        <v>1.019145786259638</v>
       </c>
       <c r="D10">
-        <v>1.008131464757032</v>
+        <v>1.024884521743532</v>
       </c>
       <c r="E10">
-        <v>0.9969253832930847</v>
+        <v>1.020408497575334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037600352913176</v>
+        <v>1.030227429653652</v>
       </c>
       <c r="J10">
-        <v>1.016208470887962</v>
+        <v>1.025596154529087</v>
       </c>
       <c r="K10">
-        <v>1.022355438934583</v>
+        <v>1.028370310444167</v>
       </c>
       <c r="L10">
-        <v>1.011350373683104</v>
+        <v>1.02391074358789</v>
       </c>
       <c r="N10">
-        <v>1.009464257613197</v>
+        <v>1.012622396037276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9851277105913377</v>
+        <v>1.018688682554096</v>
       </c>
       <c r="D11">
-        <v>1.006562005397051</v>
+        <v>1.024563393813974</v>
       </c>
       <c r="E11">
-        <v>0.9951419348281746</v>
+        <v>1.020027276099971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037078287151937</v>
+        <v>1.030157582716422</v>
       </c>
       <c r="J11">
-        <v>1.015132554941362</v>
+        <v>1.025376472399893</v>
       </c>
       <c r="K11">
-        <v>1.021361223904984</v>
+        <v>1.028173419096872</v>
       </c>
       <c r="L11">
-        <v>1.010156052374081</v>
+        <v>1.023654621078227</v>
       </c>
       <c r="N11">
-        <v>1.00910752200378</v>
+        <v>1.012549661812781</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9842424753506192</v>
+        <v>1.018519032487275</v>
       </c>
       <c r="D12">
-        <v>1.005974549436707</v>
+        <v>1.024444222384059</v>
       </c>
       <c r="E12">
-        <v>0.9944747712221458</v>
+        <v>1.019885868315556</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03688128362674</v>
+        <v>1.030131478144978</v>
       </c>
       <c r="J12">
-        <v>1.014729024647028</v>
+        <v>1.025294877237608</v>
       </c>
       <c r="K12">
-        <v>1.020988174713666</v>
+        <v>1.028100258405471</v>
       </c>
       <c r="L12">
-        <v>1.009708597013759</v>
+        <v>1.023559548440324</v>
       </c>
       <c r="N12">
-        <v>1.008973727362483</v>
+        <v>1.012522644876901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.984432725808399</v>
+        <v>1.018555416694497</v>
       </c>
       <c r="D13">
-        <v>1.00610076615102</v>
+        <v>1.024469780059184</v>
       </c>
       <c r="E13">
-        <v>0.9946180959925881</v>
+        <v>1.019916191912632</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036923682173768</v>
+        <v>1.030137084906255</v>
       </c>
       <c r="J13">
-        <v>1.01481576109659</v>
+        <v>1.025312379447947</v>
       </c>
       <c r="K13">
-        <v>1.021068366572629</v>
+        <v>1.028115952798129</v>
       </c>
       <c r="L13">
-        <v>1.009804753060015</v>
+        <v>1.023579938982692</v>
       </c>
       <c r="N13">
-        <v>1.009002485638806</v>
+        <v>1.012528440102981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.985054700623787</v>
+        <v>1.018674656386257</v>
       </c>
       <c r="D14">
-        <v>1.006513538497393</v>
+        <v>1.024553540814904</v>
       </c>
       <c r="E14">
-        <v>0.9950868839623634</v>
+        <v>1.020015583300813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037062066078793</v>
+        <v>1.030155428170252</v>
       </c>
       <c r="J14">
-        <v>1.015099278991982</v>
+        <v>1.025369727617154</v>
       </c>
       <c r="K14">
-        <v>1.021330464719073</v>
+        <v>1.028167372143453</v>
       </c>
       <c r="L14">
-        <v>1.010119144442637</v>
+        <v>1.023646761056794</v>
       </c>
       <c r="N14">
-        <v>1.009096488979254</v>
+        <v>1.012547428585865</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9854368579287405</v>
+        <v>1.018748142328876</v>
       </c>
       <c r="D15">
-        <v>1.006767262108386</v>
+        <v>1.024605163190083</v>
       </c>
       <c r="E15">
-        <v>0.9953750903696811</v>
+        <v>1.020076847500519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037146918286578</v>
+        <v>1.030166708840892</v>
       </c>
       <c r="J15">
-        <v>1.015273445061397</v>
+        <v>1.025405062363375</v>
       </c>
       <c r="K15">
-        <v>1.021491451538146</v>
+        <v>1.028199049831879</v>
       </c>
       <c r="L15">
-        <v>1.01031234000259</v>
+        <v>1.023687940693284</v>
       </c>
       <c r="N15">
-        <v>1.009154235821351</v>
+        <v>1.012559128003897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9876451994482953</v>
+        <v>1.019176142041135</v>
       </c>
       <c r="D16">
-        <v>1.008235002819693</v>
+        <v>1.024905849228011</v>
       </c>
       <c r="E16">
-        <v>0.9970430933287913</v>
+        <v>1.020433825191904</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037634571490795</v>
+        <v>1.030232042641963</v>
       </c>
       <c r="J16">
-        <v>1.016279337260694</v>
+        <v>1.025610734671227</v>
       </c>
       <c r="K16">
-        <v>1.022420901038943</v>
+        <v>1.028383373685291</v>
       </c>
       <c r="L16">
-        <v>1.011429106258384</v>
+        <v>1.023927750296415</v>
       </c>
       <c r="N16">
-        <v>1.009487754584418</v>
+        <v>1.01262722311287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.989016609969717</v>
+        <v>1.019444859532937</v>
       </c>
       <c r="D17">
-        <v>1.009147828965216</v>
+        <v>1.025094655034138</v>
       </c>
       <c r="E17">
-        <v>0.9980811700184744</v>
+        <v>1.020658092700691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037935032634126</v>
+        <v>1.030272738315587</v>
       </c>
       <c r="J17">
-        <v>1.016903506493729</v>
+        <v>1.025739754095035</v>
       </c>
       <c r="K17">
-        <v>1.022997342466102</v>
+        <v>1.028498946494378</v>
       </c>
       <c r="L17">
-        <v>1.012122927130441</v>
+        <v>1.024078286491362</v>
       </c>
       <c r="N17">
-        <v>1.009694709461991</v>
+        <v>1.012669936490093</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9898116454856797</v>
+        <v>1.019601685321998</v>
       </c>
       <c r="D18">
-        <v>1.009677480458856</v>
+        <v>1.025204851296131</v>
       </c>
       <c r="E18">
-        <v>0.9986837533625373</v>
+        <v>1.020789027704283</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038108348861093</v>
+        <v>1.030296371920404</v>
       </c>
       <c r="J18">
-        <v>1.017265160143072</v>
+        <v>1.025815010875804</v>
       </c>
       <c r="K18">
-        <v>1.023331232970769</v>
+        <v>1.028566340171646</v>
       </c>
       <c r="L18">
-        <v>1.012525245682688</v>
+        <v>1.024166130827249</v>
       </c>
       <c r="N18">
-        <v>1.009814622940515</v>
+        <v>1.012694850006367</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9900819124392102</v>
+        <v>1.019655173623466</v>
       </c>
       <c r="D19">
-        <v>1.009857609709814</v>
+        <v>1.025242437019039</v>
       </c>
       <c r="E19">
-        <v>0.9988887301042837</v>
+        <v>1.020833694047198</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038167118359988</v>
+        <v>1.030304412791504</v>
       </c>
       <c r="J19">
-        <v>1.017388068719803</v>
+        <v>1.025840671778453</v>
       </c>
       <c r="K19">
-        <v>1.023444687444968</v>
+        <v>1.028589316580909</v>
       </c>
       <c r="L19">
-        <v>1.01266202653357</v>
+        <v>1.02419609006284</v>
       </c>
       <c r="N19">
-        <v>1.009855375791467</v>
+        <v>1.012703344776527</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9888699780295573</v>
+        <v>1.019416019630519</v>
       </c>
       <c r="D20">
-        <v>1.009050180356122</v>
+        <v>1.025074390802939</v>
       </c>
       <c r="E20">
-        <v>0.9979700962887846</v>
+        <v>1.020634018123064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037902996852558</v>
+        <v>1.030268382754238</v>
       </c>
       <c r="J20">
-        <v>1.016836789524708</v>
+        <v>1.025725911321754</v>
       </c>
       <c r="K20">
-        <v>1.022935738309988</v>
+        <v>1.028486548476224</v>
       </c>
       <c r="L20">
-        <v>1.012048733264094</v>
+        <v>1.02406213132448</v>
       </c>
       <c r="N20">
-        <v>1.00967258815582</v>
+        <v>1.01266535379451</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9848717663285883</v>
+        <v>1.018639539424919</v>
       </c>
       <c r="D21">
-        <v>1.006392112383024</v>
+        <v>1.02452887231287</v>
       </c>
       <c r="E21">
-        <v>0.9949489689982273</v>
+        <v>1.019986309617796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037021401136933</v>
+        <v>1.030150030955394</v>
       </c>
       <c r="J21">
-        <v>1.015015898304192</v>
+        <v>1.025352839873495</v>
       </c>
       <c r="K21">
-        <v>1.021253387802773</v>
+        <v>1.028152231147677</v>
       </c>
       <c r="L21">
-        <v>1.010026670764199</v>
+        <v>1.023627081878861</v>
       </c>
       <c r="N21">
-        <v>1.009068843181581</v>
+        <v>1.012541836952768</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823118129800741</v>
+        <v>1.018152138517721</v>
       </c>
       <c r="D22">
-        <v>1.0046948353785</v>
+        <v>1.024186519371049</v>
       </c>
       <c r="E22">
-        <v>0.9930221209957385</v>
+        <v>1.01958019798126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036449225173631</v>
+        <v>1.030074691360735</v>
       </c>
       <c r="J22">
-        <v>1.01384847990091</v>
+        <v>1.025118302133273</v>
       </c>
       <c r="K22">
-        <v>1.020173856886654</v>
+        <v>1.027941880061365</v>
       </c>
       <c r="L22">
-        <v>1.008733090109618</v>
+        <v>1.023353912373794</v>
       </c>
       <c r="N22">
-        <v>1.008681777684508</v>
+        <v>1.012464176055213</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9836733695731169</v>
+        <v>1.018410442095841</v>
       </c>
       <c r="D23">
-        <v>1.005597110444563</v>
+        <v>1.024367946148073</v>
       </c>
       <c r="E23">
-        <v>0.9940462281832689</v>
+        <v>1.019795377744922</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036754262703385</v>
+        <v>1.030114717931316</v>
       </c>
       <c r="J23">
-        <v>1.01446952839663</v>
+        <v>1.02524263199129</v>
       </c>
       <c r="K23">
-        <v>1.020748235510643</v>
+        <v>1.028053405147051</v>
       </c>
       <c r="L23">
-        <v>1.009420990172214</v>
+        <v>1.023498689727195</v>
       </c>
       <c r="N23">
-        <v>1.008887689280858</v>
+        <v>1.012505345496633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9889362497664647</v>
+        <v>1.019429050871212</v>
       </c>
       <c r="D24">
-        <v>1.009094312155123</v>
+        <v>1.025083547123754</v>
       </c>
       <c r="E24">
-        <v>0.9980202947053929</v>
+        <v>1.020644896006948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037917478426983</v>
+        <v>1.030270351164811</v>
       </c>
       <c r="J24">
-        <v>1.016866943502231</v>
+        <v>1.025732166269365</v>
       </c>
       <c r="K24">
-        <v>1.022963581794603</v>
+        <v>1.02849215066273</v>
       </c>
       <c r="L24">
-        <v>1.012082265611229</v>
+        <v>1.02406943102835</v>
       </c>
       <c r="N24">
-        <v>1.009682586290897</v>
+        <v>1.012667424518916</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9948528555282267</v>
+        <v>1.020614510963147</v>
       </c>
       <c r="D25">
-        <v>1.013043826553592</v>
+        <v>1.025916662575403</v>
       </c>
       <c r="E25">
-        <v>1.002518375890635</v>
+        <v>1.021635553635517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039191506360871</v>
+        <v>1.03044689228811</v>
       </c>
       <c r="J25">
-        <v>1.01955469198486</v>
+        <v>1.026300314315779</v>
       </c>
       <c r="K25">
-        <v>1.025442973076064</v>
+        <v>1.029000579799313</v>
       </c>
       <c r="L25">
-        <v>1.015077722708498</v>
+        <v>1.024733273397821</v>
       </c>
       <c r="N25">
-        <v>1.010573764191335</v>
+        <v>1.012855487861789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_193/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021562707921193</v>
+        <v>0.99942851883846</v>
       </c>
       <c r="D2">
-        <v>1.026583254673848</v>
+        <v>1.016110944888964</v>
       </c>
       <c r="E2">
-        <v>1.022429520663156</v>
+        <v>1.006020036956834</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030584396658172</v>
+        <v>1.040148605294201</v>
       </c>
       <c r="J2">
-        <v>1.026753473200626</v>
+        <v>1.021626336255066</v>
       </c>
       <c r="K2">
-        <v>1.029405477563145</v>
+        <v>1.027350300435679</v>
       </c>
       <c r="L2">
-        <v>1.025263927067645</v>
+        <v>1.017396135413819</v>
       </c>
       <c r="N2">
-        <v>1.013005452593201</v>
+        <v>1.011260644598374</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022252695899515</v>
+        <v>1.002672480574523</v>
       </c>
       <c r="D3">
-        <v>1.027068441004793</v>
+        <v>1.01829200655361</v>
       </c>
       <c r="E3">
-        <v>1.023008187642047</v>
+        <v>1.008515294835562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030682306505229</v>
+        <v>1.040810247286473</v>
       </c>
       <c r="J3">
-        <v>1.027082484605793</v>
+        <v>1.023090555260378</v>
       </c>
       <c r="K3">
-        <v>1.029699082267485</v>
+        <v>1.028696067560324</v>
       </c>
       <c r="L3">
-        <v>1.025649881504466</v>
+        <v>1.019040368052944</v>
       </c>
       <c r="N3">
-        <v>1.013114311811413</v>
+        <v>1.011746101856643</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022699851145742</v>
+        <v>1.004736763406435</v>
       </c>
       <c r="D4">
-        <v>1.02738292320972</v>
+        <v>1.019682728645829</v>
       </c>
       <c r="E4">
-        <v>1.023383617840391</v>
+        <v>1.01010884254133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030744762724205</v>
+        <v>1.041223262245252</v>
       </c>
       <c r="J4">
-        <v>1.027295358324707</v>
+        <v>1.024020073530099</v>
       </c>
       <c r="K4">
-        <v>1.02988887672867</v>
+        <v>1.029549265456281</v>
       </c>
       <c r="L4">
-        <v>1.025899912433397</v>
+        <v>1.02008677474336</v>
       </c>
       <c r="N4">
-        <v>1.013184734933066</v>
+        <v>1.012054265079984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022887997494496</v>
+        <v>1.005596472669889</v>
       </c>
       <c r="D5">
-        <v>1.027515257423985</v>
+        <v>1.020262560510851</v>
       </c>
       <c r="E5">
-        <v>1.023541684532759</v>
+        <v>1.010773845973819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030770803590168</v>
+        <v>1.041393317412629</v>
       </c>
       <c r="J5">
-        <v>1.027384844612716</v>
+        <v>1.024406631045763</v>
       </c>
       <c r="K5">
-        <v>1.029968620114246</v>
+        <v>1.029903805889592</v>
       </c>
       <c r="L5">
-        <v>1.026005093959688</v>
+        <v>1.020522572622232</v>
       </c>
       <c r="N5">
-        <v>1.013214336500442</v>
+        <v>1.01218241602518</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022919597547912</v>
+        <v>1.005740351736287</v>
       </c>
       <c r="D6">
-        <v>1.027537484245304</v>
+        <v>1.020359636491309</v>
       </c>
       <c r="E6">
-        <v>1.023568238393736</v>
+        <v>1.010885217520416</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030775163294054</v>
+        <v>1.041421661879856</v>
       </c>
       <c r="J6">
-        <v>1.027399869373266</v>
+        <v>1.02447129104351</v>
       </c>
       <c r="K6">
-        <v>1.029982006631071</v>
+        <v>1.02996309378113</v>
       </c>
       <c r="L6">
-        <v>1.026022758374618</v>
+        <v>1.020595506269707</v>
       </c>
       <c r="N6">
-        <v>1.013219306467392</v>
+        <v>1.012203851722321</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022702364531513</v>
+        <v>1.004748282496685</v>
       </c>
       <c r="D7">
-        <v>1.027384690973805</v>
+        <v>1.019690495230164</v>
       </c>
       <c r="E7">
-        <v>1.023385729011271</v>
+        <v>1.010117747546453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030745111532128</v>
+        <v>1.041225548528948</v>
       </c>
       <c r="J7">
-        <v>1.027296554069456</v>
+        <v>1.024025255175686</v>
       </c>
       <c r="K7">
-        <v>1.029889942446934</v>
+        <v>1.029554019033834</v>
       </c>
       <c r="L7">
-        <v>1.025901317606772</v>
+        <v>1.020092613942437</v>
       </c>
       <c r="N7">
-        <v>1.013185130488192</v>
+        <v>1.012055982909709</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021795749067096</v>
+        <v>1.000532160997747</v>
       </c>
       <c r="D8">
-        <v>1.026747113857775</v>
+        <v>1.016852363628628</v>
       </c>
       <c r="E8">
-        <v>1.022624876796495</v>
+        <v>1.006867750649104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030617671237569</v>
+        <v>1.040375364768959</v>
       </c>
       <c r="J8">
-        <v>1.026864667194587</v>
+        <v>1.022124937650582</v>
       </c>
       <c r="K8">
-        <v>1.029504740649284</v>
+        <v>1.027808796834374</v>
       </c>
       <c r="L8">
-        <v>1.025394300675658</v>
+        <v>1.017955490617049</v>
       </c>
       <c r="N8">
-        <v>1.013042245123921</v>
+        <v>1.011425957185071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020203533027826</v>
+        <v>0.9928266225611642</v>
       </c>
       <c r="D9">
-        <v>1.02562780097102</v>
+        <v>1.011689146382392</v>
       </c>
       <c r="E9">
-        <v>1.021291864297752</v>
+        <v>1.000974231667564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030386260577968</v>
+        <v>1.038759547063202</v>
       </c>
       <c r="J9">
-        <v>1.026103544359989</v>
+        <v>1.018635259342288</v>
       </c>
       <c r="K9">
-        <v>1.028824589633989</v>
+        <v>1.024595379975647</v>
       </c>
       <c r="L9">
-        <v>1.024503180429445</v>
+        <v>1.014051522393196</v>
       </c>
       <c r="N9">
-        <v>1.012790360326784</v>
+        <v>1.010268908009472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019145786259638</v>
+        <v>0.9874895489503174</v>
       </c>
       <c r="D10">
-        <v>1.024884521743532</v>
+        <v>1.008131464757032</v>
       </c>
       <c r="E10">
-        <v>1.020408497575334</v>
+        <v>0.9969253832930847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030227429653652</v>
+        <v>1.037600352913176</v>
       </c>
       <c r="J10">
-        <v>1.025596154529087</v>
+        <v>1.016208470887962</v>
       </c>
       <c r="K10">
-        <v>1.028370310444167</v>
+        <v>1.022355438934583</v>
       </c>
       <c r="L10">
-        <v>1.02391074358789</v>
+        <v>1.011350373683104</v>
       </c>
       <c r="N10">
-        <v>1.012622396037276</v>
+        <v>1.009464257613197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018688682554096</v>
+        <v>0.9851277105913379</v>
       </c>
       <c r="D11">
-        <v>1.024563393813974</v>
+        <v>1.006562005397051</v>
       </c>
       <c r="E11">
-        <v>1.020027276099971</v>
+        <v>0.9951419348281746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030157582716422</v>
+        <v>1.037078287151938</v>
       </c>
       <c r="J11">
-        <v>1.025376472399893</v>
+        <v>1.015132554941362</v>
       </c>
       <c r="K11">
-        <v>1.028173419096872</v>
+        <v>1.021361223904984</v>
       </c>
       <c r="L11">
-        <v>1.023654621078227</v>
+        <v>1.010156052374081</v>
       </c>
       <c r="N11">
-        <v>1.012549661812781</v>
+        <v>1.00910752200378</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018519032487275</v>
+        <v>0.9842424753506187</v>
       </c>
       <c r="D12">
-        <v>1.024444222384059</v>
+        <v>1.005974549436707</v>
       </c>
       <c r="E12">
-        <v>1.019885868315556</v>
+        <v>0.9944747712221451</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030131478144978</v>
+        <v>1.03688128362674</v>
       </c>
       <c r="J12">
-        <v>1.025294877237608</v>
+        <v>1.014729024647028</v>
       </c>
       <c r="K12">
-        <v>1.028100258405471</v>
+        <v>1.020988174713666</v>
       </c>
       <c r="L12">
-        <v>1.023559548440324</v>
+        <v>1.009708597013758</v>
       </c>
       <c r="N12">
-        <v>1.012522644876901</v>
+        <v>1.008973727362483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018555416694497</v>
+        <v>0.9844327258083985</v>
       </c>
       <c r="D13">
-        <v>1.024469780059184</v>
+        <v>1.006100766151019</v>
       </c>
       <c r="E13">
-        <v>1.019916191912632</v>
+        <v>0.9946180959925879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030137084906255</v>
+        <v>1.036923682173768</v>
       </c>
       <c r="J13">
-        <v>1.025312379447947</v>
+        <v>1.01481576109659</v>
       </c>
       <c r="K13">
-        <v>1.028115952798129</v>
+        <v>1.021068366572629</v>
       </c>
       <c r="L13">
-        <v>1.023579938982692</v>
+        <v>1.009804753060014</v>
       </c>
       <c r="N13">
-        <v>1.012528440102981</v>
+        <v>1.009002485638806</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018674656386257</v>
+        <v>0.9850547006237865</v>
       </c>
       <c r="D14">
-        <v>1.024553540814904</v>
+        <v>1.006513538497393</v>
       </c>
       <c r="E14">
-        <v>1.020015583300813</v>
+        <v>0.995086883962363</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030155428170252</v>
+        <v>1.037062066078793</v>
       </c>
       <c r="J14">
-        <v>1.025369727617154</v>
+        <v>1.015099278991982</v>
       </c>
       <c r="K14">
-        <v>1.028167372143453</v>
+        <v>1.021330464719072</v>
       </c>
       <c r="L14">
-        <v>1.023646761056794</v>
+        <v>1.010119144442637</v>
       </c>
       <c r="N14">
-        <v>1.012547428585865</v>
+        <v>1.009096488979254</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018748142328876</v>
+        <v>0.9854368579287399</v>
       </c>
       <c r="D15">
-        <v>1.024605163190083</v>
+        <v>1.006767262108386</v>
       </c>
       <c r="E15">
-        <v>1.020076847500519</v>
+        <v>0.9953750903696806</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030166708840892</v>
+        <v>1.037146918286578</v>
       </c>
       <c r="J15">
-        <v>1.025405062363375</v>
+        <v>1.015273445061396</v>
       </c>
       <c r="K15">
-        <v>1.028199049831879</v>
+        <v>1.021491451538145</v>
       </c>
       <c r="L15">
-        <v>1.023687940693284</v>
+        <v>1.01031234000259</v>
       </c>
       <c r="N15">
-        <v>1.012559128003897</v>
+        <v>1.009154235821351</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019176142041135</v>
+        <v>0.9876451994482943</v>
       </c>
       <c r="D16">
-        <v>1.024905849228011</v>
+        <v>1.008235002819692</v>
       </c>
       <c r="E16">
-        <v>1.020433825191904</v>
+        <v>0.9970430933287905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030232042641963</v>
+        <v>1.037634571490795</v>
       </c>
       <c r="J16">
-        <v>1.025610734671227</v>
+        <v>1.016279337260693</v>
       </c>
       <c r="K16">
-        <v>1.028383373685291</v>
+        <v>1.022420901038943</v>
       </c>
       <c r="L16">
-        <v>1.023927750296415</v>
+        <v>1.011429106258383</v>
       </c>
       <c r="N16">
-        <v>1.01262722311287</v>
+        <v>1.009487754584418</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019444859532937</v>
+        <v>0.9890166099697162</v>
       </c>
       <c r="D17">
-        <v>1.025094655034138</v>
+        <v>1.009147828965215</v>
       </c>
       <c r="E17">
-        <v>1.020658092700691</v>
+        <v>0.9980811700184734</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030272738315587</v>
+        <v>1.037935032634125</v>
       </c>
       <c r="J17">
-        <v>1.025739754095035</v>
+        <v>1.016903506493729</v>
       </c>
       <c r="K17">
-        <v>1.028498946494378</v>
+        <v>1.022997342466101</v>
       </c>
       <c r="L17">
-        <v>1.024078286491362</v>
+        <v>1.01212292713044</v>
       </c>
       <c r="N17">
-        <v>1.012669936490093</v>
+        <v>1.009694709461991</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019601685321998</v>
+        <v>0.9898116454856796</v>
       </c>
       <c r="D18">
-        <v>1.025204851296131</v>
+        <v>1.009677480458856</v>
       </c>
       <c r="E18">
-        <v>1.020789027704283</v>
+        <v>0.998683753362537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030296371920404</v>
+        <v>1.038108348861093</v>
       </c>
       <c r="J18">
-        <v>1.025815010875804</v>
+        <v>1.017265160143072</v>
       </c>
       <c r="K18">
-        <v>1.028566340171646</v>
+        <v>1.023331232970769</v>
       </c>
       <c r="L18">
-        <v>1.024166130827249</v>
+        <v>1.012525245682687</v>
       </c>
       <c r="N18">
-        <v>1.012694850006367</v>
+        <v>1.009814622940515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019655173623466</v>
+        <v>0.9900819124392097</v>
       </c>
       <c r="D19">
-        <v>1.025242437019039</v>
+        <v>1.009857609709814</v>
       </c>
       <c r="E19">
-        <v>1.020833694047198</v>
+        <v>0.9988887301042833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030304412791504</v>
+        <v>1.038167118359988</v>
       </c>
       <c r="J19">
-        <v>1.025840671778453</v>
+        <v>1.017388068719802</v>
       </c>
       <c r="K19">
-        <v>1.028589316580909</v>
+        <v>1.023444687444968</v>
       </c>
       <c r="L19">
-        <v>1.02419609006284</v>
+        <v>1.012662026533569</v>
       </c>
       <c r="N19">
-        <v>1.012703344776527</v>
+        <v>1.009855375791467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019416019630519</v>
+        <v>0.988869978029557</v>
       </c>
       <c r="D20">
-        <v>1.025074390802939</v>
+        <v>1.009050180356122</v>
       </c>
       <c r="E20">
-        <v>1.020634018123064</v>
+        <v>0.9979700962887843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030268382754238</v>
+        <v>1.037902996852558</v>
       </c>
       <c r="J20">
-        <v>1.025725911321754</v>
+        <v>1.016836789524707</v>
       </c>
       <c r="K20">
-        <v>1.028486548476224</v>
+        <v>1.022935738309987</v>
       </c>
       <c r="L20">
-        <v>1.02406213132448</v>
+        <v>1.012048733264094</v>
       </c>
       <c r="N20">
-        <v>1.01266535379451</v>
+        <v>1.00967258815582</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018639539424919</v>
+        <v>0.9848717663285873</v>
       </c>
       <c r="D21">
-        <v>1.02452887231287</v>
+        <v>1.006392112383022</v>
       </c>
       <c r="E21">
-        <v>1.019986309617796</v>
+        <v>0.994948968998226</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030150030955394</v>
+        <v>1.037021401136932</v>
       </c>
       <c r="J21">
-        <v>1.025352839873495</v>
+        <v>1.015015898304191</v>
       </c>
       <c r="K21">
-        <v>1.028152231147677</v>
+        <v>1.021253387802772</v>
       </c>
       <c r="L21">
-        <v>1.023627081878861</v>
+        <v>1.010026670764198</v>
       </c>
       <c r="N21">
-        <v>1.012541836952768</v>
+        <v>1.009068843181581</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018152138517721</v>
+        <v>0.9823118129800739</v>
       </c>
       <c r="D22">
-        <v>1.024186519371049</v>
+        <v>1.0046948353785</v>
       </c>
       <c r="E22">
-        <v>1.01958019798126</v>
+        <v>0.9930221209957383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030074691360735</v>
+        <v>1.036449225173631</v>
       </c>
       <c r="J22">
-        <v>1.025118302133273</v>
+        <v>1.01384847990091</v>
       </c>
       <c r="K22">
-        <v>1.027941880061365</v>
+        <v>1.020173856886653</v>
       </c>
       <c r="L22">
-        <v>1.023353912373794</v>
+        <v>1.008733090109617</v>
       </c>
       <c r="N22">
-        <v>1.012464176055213</v>
+        <v>1.008681777684508</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018410442095841</v>
+        <v>0.9836733695731165</v>
       </c>
       <c r="D23">
-        <v>1.024367946148073</v>
+        <v>1.005597110444563</v>
       </c>
       <c r="E23">
-        <v>1.019795377744922</v>
+        <v>0.9940462281832684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030114717931316</v>
+        <v>1.036754262703385</v>
       </c>
       <c r="J23">
-        <v>1.02524263199129</v>
+        <v>1.01446952839663</v>
       </c>
       <c r="K23">
-        <v>1.028053405147051</v>
+        <v>1.020748235510642</v>
       </c>
       <c r="L23">
-        <v>1.023498689727195</v>
+        <v>1.009420990172214</v>
       </c>
       <c r="N23">
-        <v>1.012505345496633</v>
+        <v>1.008887689280858</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019429050871212</v>
+        <v>0.9889362497664641</v>
       </c>
       <c r="D24">
-        <v>1.025083547123754</v>
+        <v>1.009094312155123</v>
       </c>
       <c r="E24">
-        <v>1.020644896006948</v>
+        <v>0.9980202947053924</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030270351164811</v>
+        <v>1.037917478426983</v>
       </c>
       <c r="J24">
-        <v>1.025732166269365</v>
+        <v>1.016866943502231</v>
       </c>
       <c r="K24">
-        <v>1.02849215066273</v>
+        <v>1.022963581794603</v>
       </c>
       <c r="L24">
-        <v>1.02406943102835</v>
+        <v>1.012082265611229</v>
       </c>
       <c r="N24">
-        <v>1.012667424518916</v>
+        <v>1.009682586290896</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020614510963147</v>
+        <v>0.9948528555282264</v>
       </c>
       <c r="D25">
-        <v>1.025916662575403</v>
+        <v>1.013043826553591</v>
       </c>
       <c r="E25">
-        <v>1.021635553635517</v>
+        <v>1.002518375890634</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03044689228811</v>
+        <v>1.03919150636087</v>
       </c>
       <c r="J25">
-        <v>1.026300314315779</v>
+        <v>1.019554691984859</v>
       </c>
       <c r="K25">
-        <v>1.029000579799313</v>
+        <v>1.025442973076064</v>
       </c>
       <c r="L25">
-        <v>1.024733273397821</v>
+        <v>1.015077722708498</v>
       </c>
       <c r="N25">
-        <v>1.012855487861789</v>
+        <v>1.010573764191335</v>
       </c>
     </row>
   </sheetData>
